--- a/ADHOC_Config.xlsx
+++ b/ADHOC_Config.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6727ae3ed574fa78/JOINDATA/Youtube/ADHOC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6727ae3ed574fa78/JOINDATA/Projetos em Andamento/Github/adhoc_tensini/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="268" documentId="8_{F7D4EA5F-04BD-47DC-8F80-4B60CD00558F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9290DB5-FE15-4BC3-A1D4-39DC096433D1}"/>
+  <xr:revisionPtr revIDLastSave="373" documentId="8_{F7D4EA5F-04BD-47DC-8F80-4B60CD00558F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3827470E-8A43-466C-B8B2-746CB9FB091E}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="5145" windowWidth="21705" windowHeight="12465" xr2:uid="{B1C4D33F-4C15-405B-8095-4265CE4A21C4}"/>
+    <workbookView xWindow="4050" yWindow="2820" windowWidth="26565" windowHeight="16935" activeTab="1" xr2:uid="{B1C4D33F-4C15-405B-8095-4265CE4A21C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="KPI_Formula" sheetId="1" r:id="rId1"/>
-    <sheet name="ADHOC_Metrics" sheetId="3" r:id="rId2"/>
-    <sheet name="ADHOC_Dimensions" sheetId="2" r:id="rId3"/>
+    <sheet name="README" sheetId="4" r:id="rId1"/>
+    <sheet name="KPI_Formula" sheetId="1" r:id="rId2"/>
+    <sheet name="ADHOC_Metrics" sheetId="3" r:id="rId3"/>
+    <sheet name="ADHOC_Dimensions" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
   <si>
     <t>Variable</t>
   </si>
@@ -200,13 +201,64 @@
     <t>valueSales_cy</t>
   </si>
   <si>
-    <t>If($(valueSales_cy)&gt;0, Num(((Sum({&lt;$(fieldYear)={$(=Max($(fieldYear)))}&gt;}Sales)/Sum({&lt;$(fieldYear)={$(=Max($(fieldYear))-1)}&gt;}Sales))-1)*100,'#,##0.00% ▲;-#,##0.00% ▼') )</t>
-  </si>
-  <si>
     <t>$(fieldWeekDay)</t>
   </si>
   <si>
     <t>WeekDay</t>
+  </si>
+  <si>
+    <t>If($(valueSales_cy)&gt;0, Num(((Sum({&lt;$(fieldYear)={$(=Max($(fieldYear)))}&gt;}Sales)/Sum({&lt;$(fieldYear)={$(=Max($(fieldYear))-1)}&gt;}Sales))-1)*100,'#,##0.00%;-#,##0.00% ▼') )</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>, '#,##0.00'</t>
+  </si>
+  <si>
+    <t>, '#,##0'</t>
+  </si>
+  <si>
+    <t>,'#,##0.00%;-#,##0.00% ▼'</t>
+  </si>
+  <si>
+    <t>Aggregation</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Modifiers</t>
+  </si>
+  <si>
+    <t>{&lt;$(fieldYear)={$(=Max($(fieldYear)))}&gt;}</t>
+  </si>
+  <si>
+    <t>{&lt;$(fieldYear)={$(=Max($(fieldYear))-1)}&gt;}</t>
+  </si>
+  <si>
+    <t>{&lt;$(fieldYear)={$(=Max($(fieldYear)))}&gt;}Sales)-Sum({&lt;$(fieldYear)={$(=Max($(fieldYear))-1)}&gt;}</t>
+  </si>
+  <si>
+    <t>{&lt;$(fieldYear)={$(=Max($(fieldYear)))}&gt;}Sales)/Sum({&lt;$(fieldYear)={$(=Max($(fieldYear))-1)}&gt;}</t>
+  </si>
+  <si>
+    <t>Count(distinct</t>
+  </si>
+  <si>
+    <t>Sum(</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Cell with automatic formula</t>
+  </si>
+  <si>
+    <t>countTransactions</t>
+  </si>
+  <si>
+    <t># Transactions</t>
   </si>
 </sst>
 </file>
@@ -244,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +306,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,15 +340,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,89 +667,272 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C400F6E4-4952-41EE-8A54-91A6A600D1CB}">
+  <dimension ref="B2:C2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F755B5B2-2FD2-4679-A817-BEB3F782F127}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="159.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="126.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="159.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="G1" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="7" t="str">
+        <f>"Num( " &amp; C2 &amp; " " &amp; IF(LEN(D2)&gt;0,D2,"") &amp; B2 &amp; " )" &amp; E2 &amp; " )"</f>
+        <v>Num( Sum( Sales ), '#,##0.00' )</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f t="shared" ref="F3:F10" si="0">"Num( " &amp; C3 &amp; " " &amp; IF(LEN(D3)&gt;0,D3,"") &amp; B3 &amp; " )" &amp; E3 &amp; " )"</f>
+        <v>Num( Sum( {&lt;$(fieldYear)={$(=Max($(fieldYear)))}&gt;}Sales ), '#,##0.00' )</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Num( Sum( {&lt;$(fieldYear)={$(=Max($(fieldYear))-1)}&gt;}Sales ), '#,##0.00' )</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Num( Sum( Quantity ), '#,##0' )</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Num( Sum( Discount ), '#,##0.00' )</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Num( Sum( Cost ), '#,##0.00' )</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Num( Sum( {&lt;$(fieldYear)={$(=Max($(fieldYear)))}&gt;}Sales)-Sum({&lt;$(fieldYear)={$(=Max($(fieldYear))-1)}&gt;}Sales ), '#,##0.00' )</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>54</v>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Num( Sum( {&lt;$(fieldYear)={$(=Max($(fieldYear)))}&gt;}Sales)/Sum({&lt;$(fieldYear)={$(=Max($(fieldYear))-1)}&gt;}Sales ),'#,##0.00%;-#,##0.00% ▼' )</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Num( Count(distinct TransID ), '#,##0' )</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -684,37 +942,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C1CBD6-27E8-4457-8A3B-1FD779D15F45}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2" s="8" t="str">
         <f>"$(" &amp; KPI_Formula!A2 &amp; ")"</f>
         <v>$(valueSales)</v>
       </c>
@@ -729,7 +988,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+      <c r="A3" s="8" t="str">
         <f>"$(" &amp; KPI_Formula!A3 &amp; ")"</f>
         <v>$(valueSales_cy)</v>
       </c>
@@ -744,7 +1003,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+      <c r="A4" s="8" t="str">
         <f>"$(" &amp; KPI_Formula!A4 &amp; ")"</f>
         <v>$(valueSales_ly)</v>
       </c>
@@ -759,7 +1018,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+      <c r="A5" s="8" t="str">
         <f>"$(" &amp; KPI_Formula!A5 &amp; ")"</f>
         <v>$(quantitySales)</v>
       </c>
@@ -774,7 +1033,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+      <c r="A6" s="8" t="str">
         <f>"$(" &amp; KPI_Formula!A6 &amp; ")"</f>
         <v>$(valueDiscount)</v>
       </c>
@@ -789,7 +1048,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
+      <c r="A7" s="8" t="str">
         <f>"$(" &amp; KPI_Formula!A7 &amp; ")"</f>
         <v>$(valueCost)</v>
       </c>
@@ -804,7 +1063,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
+      <c r="A8" s="8" t="str">
         <f>"$(" &amp; KPI_Formula!A8 &amp; ")"</f>
         <v>$(valueSales_delta)</v>
       </c>
@@ -819,7 +1078,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+      <c r="A9" s="8" t="str">
         <f>"$(" &amp; KPI_Formula!A9 &amp; ")"</f>
         <v>$(valueSales_delta_p)</v>
       </c>
@@ -827,10 +1086,25 @@
         <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="str">
+        <f>"$(" &amp; KPI_Formula!A10 &amp; ")"</f>
+        <v>$(countTransactions)</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -839,12 +1113,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21756226-81BA-4119-845B-19ABEFABA569}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,16 +1129,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -878,7 +1152,7 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="9">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
@@ -893,22 +1167,22 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="9">
         <f t="shared" ref="D3:D12" si="0">ROW()-1</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
         <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -923,7 +1197,7 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -938,7 +1212,7 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -953,7 +1227,7 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -968,7 +1242,7 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -983,7 +1257,7 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -998,7 +1272,7 @@
       <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1013,7 +1287,7 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1028,7 +1302,7 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
